--- a/templates/community/CMML/CMML_assay_IC-MS.xlsx
+++ b/templates/community/CMML/CMML_assay_IC-MS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lea Wirth\Documents\GitHub\Swate-templates\templates\community\CMML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2970C0D-ECAE-4B5C-A919-2F72B46C364A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18466E5-B2B2-4C00-8A12-A91386105287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D26A7B8-DA62-45C6-9C6A-71C7D606DF33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="466" xr2:uid="{6D26A7B8-DA62-45C6-9C6A-71C7D606DF33}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Source Name</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t xml:space="preserve">Term Accession Number () </t>
+  </si>
+  <si>
+    <t>Characteristic [Chromatography gradient]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NFDI4PSO:0000081)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NFDI4PSO:0000081)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,16 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -210,28 +228,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD1793DC-2AC0-4AD6-BD1E-6BEAB7DF1CAD}" name="annotationTablePlasticRattlesnake90" displayName="annotationTablePlasticRattlesnake90" ref="A1:T2" totalsRowShown="0">
-  <autoFilter ref="A1:T2" xr:uid="{AD1793DC-2AC0-4AD6-BD1E-6BEAB7DF1CAD}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD1793DC-2AC0-4AD6-BD1E-6BEAB7DF1CAD}" name="annotationTablePlasticRattlesnake90" displayName="annotationTablePlasticRattlesnake90" ref="A1:W2" totalsRowShown="0">
+  <autoFilter ref="A1:W2" xr:uid="{AD1793DC-2AC0-4AD6-BD1E-6BEAB7DF1CAD}"/>
+  <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{645D93E6-EFA1-41D3-89FE-72B9F6C0E8B8}" name="Source Name"/>
-    <tableColumn id="9" xr3:uid="{503C4B34-D23D-4E57-8ED1-D66B8883331E}" name="Characteristic [date]" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{A4807023-EAC4-46D0-A05B-152379175CDD}" name="Term Source REF (DPBO:1000153)" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{36EBAB7F-1BB1-4B6A-A2D0-CC4F978F0C50}" name="Term Accession Number (DPBO:1000153)" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{846FF93F-0B57-440E-897A-01B2CFD014CE}" name="Characteristic [MS sample resuspension solvent]" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{30A4E3E7-F6F3-4970-81F6-CAD42F42B9A1}" name="Term Source REF (DPBO:0000044)" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{B713779C-7E21-4B03-8AC2-6A94C311BC72}" name="Term Accession Number (DPBO:0000044)" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{E9054E23-3668-43C4-9304-9A43A54C5E31}" name="Characteristic [MS sample resuspension volume]" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{DBB6DDCC-C2E7-497D-9D6A-3D612C0C59CF}" name="Term Source REF (DPBO:0000044) " dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{C9C4BF9C-387E-4C65-833B-1BBC0C5DAD56}" name="Term Accession Number (DPBO:0000044) " dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{0639C805-0CE4-4763-B5B9-72E781892A70}" name="Characteristic [sample preparation]" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{3A971D2A-1449-4C12-ACE8-210D3A2B0CD3}" name="Term Source REF (MS:1000831)" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{EA4FD0F5-C8EF-4BD1-BDE8-A9D417EBA76B}" name="Term Accession Number (MS:1000831)" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{84FAF3BB-1359-4FE1-970C-700FD7E7F425}" name="Characteristic [MakeUp Solution]" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{1A338E44-C033-4206-96EE-E28CB63EEBFB}" name="Term Source REF ()" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{541C02C7-74C1-49F7-8C01-6A13F85B1C6A}" name="Term Accession Number ()" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{4240B438-0252-4ED9-9D88-300E092A0354}" name="Characteristic [MS Method]" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{C4AF36A2-B221-4630-A139-D21317EA015F}" name="Term Source REF () " dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{9A8F53C0-7985-4C20-A329-D5F21D4FDD2F}" name="Term Accession Number () " dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{503C4B34-D23D-4E57-8ED1-D66B8883331E}" name="Characteristic [date]" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{A4807023-EAC4-46D0-A05B-152379175CDD}" name="Term Source REF (DPBO:1000153)" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{36EBAB7F-1BB1-4B6A-A2D0-CC4F978F0C50}" name="Term Accession Number (DPBO:1000153)" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{846FF93F-0B57-440E-897A-01B2CFD014CE}" name="Characteristic [MS sample resuspension solvent]" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{30A4E3E7-F6F3-4970-81F6-CAD42F42B9A1}" name="Term Source REF (DPBO:0000044)" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{B713779C-7E21-4B03-8AC2-6A94C311BC72}" name="Term Accession Number (DPBO:0000044)" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{E9054E23-3668-43C4-9304-9A43A54C5E31}" name="Characteristic [MS sample resuspension volume]" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{DBB6DDCC-C2E7-497D-9D6A-3D612C0C59CF}" name="Term Source REF (DPBO:0000044) " dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{C9C4BF9C-387E-4C65-833B-1BBC0C5DAD56}" name="Term Accession Number (DPBO:0000044) " dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{0639C805-0CE4-4763-B5B9-72E781892A70}" name="Characteristic [sample preparation]" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{3A971D2A-1449-4C12-ACE8-210D3A2B0CD3}" name="Term Source REF (MS:1000831)" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{EA4FD0F5-C8EF-4BD1-BDE8-A9D417EBA76B}" name="Term Accession Number (MS:1000831)" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{84FAF3BB-1359-4FE1-970C-700FD7E7F425}" name="Characteristic [MakeUp Solution]" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{1A338E44-C033-4206-96EE-E28CB63EEBFB}" name="Term Source REF ()" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{541C02C7-74C1-49F7-8C01-6A13F85B1C6A}" name="Term Accession Number ()" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{4240B438-0252-4ED9-9D88-300E092A0354}" name="Characteristic [MS Method]" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{C4AF36A2-B221-4630-A139-D21317EA015F}" name="Term Source REF () " dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{9A8F53C0-7985-4C20-A329-D5F21D4FDD2F}" name="Term Accession Number () " dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{8DB9D7CC-93A8-45BE-9557-9F045E8C2DC5}" name="Characteristic [Chromatography gradient]" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{44902AB1-9EA2-432B-9B04-0490CC6EAE4E}" name="Term Source REF (NFDI4PSO:0000081)" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{4CF35AE1-5854-4F89-B7E3-8CB1CB502A13}" name="Term Accession Number (NFDI4PSO:0000081)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9A251AF0-3136-4DB9-B3DD-A1040DB25009}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -535,7 +556,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="277" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="645" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -553,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2DEFAC-1647-4A9F-AED2-7152C73F9BD4}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,10 +600,13 @@
     <col min="17" max="17" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.28515625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="27.28515625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,10 +665,19 @@
         <v>20</v>
       </c>
       <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -693,6 +726,15 @@
         <v>2</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
